--- a/data/trans_orig/P04C04_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0849CD-0FDD-4F6A-BB2E-DA5CF9E611A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DDFE685-DA35-4EB0-AD25-7260BDD53CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6BB9ADA-55A7-4CEA-968D-2FC3062BE5CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AB2C77F-28B9-467C-9752-A6619DE8EF65}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1188,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A99B6D-2BFA-4B52-A6A4-BAF76C53C03B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C75F7C-E8A9-4C76-AED9-D6D2A2F3DB4A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P04C04_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DDFE685-DA35-4EB0-AD25-7260BDD53CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{330AC608-06F6-4BF7-9851-415B02ADCFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AB2C77F-28B9-467C-9752-A6619DE8EF65}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C26FF8C9-A02C-414C-8016-00FE88ECC6DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="247">
-  <si>
-    <t>Hogares con refrigeración por aires acondicionado mediante aparatos móviles (NO ventiladores) en 2023 (Tasa respuesta: 99,71%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="249">
+  <si>
+    <t>Población con refrigeración por aire acondicionado mediante aparatos móviles (NO ventiladores) en la vivienda en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>93,73%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
@@ -107,7 +107,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,04%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -119,7 +119,7 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>Si, funciona correctamente</t>
@@ -128,28 +128,28 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,16 +161,16 @@
     <t>90,07%</t>
   </si>
   <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>88,72%</t>
+    <t>88,48%</t>
   </si>
   <si>
     <t>93,51%</t>
@@ -179,52 +179,52 @@
     <t>90,72%</t>
   </si>
   <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>9,65%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -233,25 +233,25 @@
     <t>94,93%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>91,92%</t>
+    <t>91,96%</t>
   </si>
   <si>
     <t>95,2%</t>
@@ -272,19 +272,19 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>6,28%</t>
@@ -293,7 +293,7 @@
     <t>4,8%</t>
   </si>
   <si>
-    <t>8,08%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -302,79 +302,79 @@
     <t>85,63%</t>
   </si>
   <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
   </si>
   <si>
     <t>82,85%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -383,37 +383,34 @@
     <t>48,67%</t>
   </si>
   <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
   </si>
   <si>
     <t>36,69%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
   </si>
   <si>
     <t>41,86%</t>
   </si>
   <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>0,34%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -422,43 +419,43 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>50,19%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>62,01%</t>
   </si>
   <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
   <si>
     <t>56,91%</t>
   </si>
   <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -467,76 +464,76 @@
     <t>93,42%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>93,31%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>2,99%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
   </si>
   <si>
     <t>5,9%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -545,76 +542,82 @@
     <t>68,49%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>79,51%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>4,3%</t>
   </si>
   <si>
-    <t>6,94%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>4,85%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -623,85 +626,88 @@
     <t>87,83%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,24%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
   </si>
   <si>
     <t>11,49%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>78,11%</t>
+    <t>78,96%</t>
   </si>
   <si>
     <t>85,55%</t>
@@ -710,19 +716,19 @@
     <t>84,73%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -734,16 +740,16 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>1,52%</t>
@@ -752,28 +758,28 @@
     <t>15,04%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1188,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C75F7C-E8A9-4C76-AED9-D6D2A2F3DB4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5498C057-7DDE-4E7F-BCDE-5648255AC472}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1984,10 +1990,10 @@
         <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1996,10 +2002,10 @@
         <v>3713</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>100</v>
@@ -2193,7 +2199,7 @@
         <v>124</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -2202,13 +2208,13 @@
         <v>3344</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2217,13 +2223,13 @@
         <v>5585</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2244,13 @@
         <v>98752</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>288</v>
@@ -2253,13 +2259,13 @@
         <v>160681</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
@@ -2268,13 +2274,13 @@
         <v>259433</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2336,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2342,13 +2348,13 @@
         <v>258994</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>430</v>
@@ -2357,13 +2363,13 @@
         <v>257170</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>776</v>
@@ -2372,13 +2378,13 @@
         <v>516165</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2399,13 @@
         <v>2463</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2408,13 +2414,13 @@
         <v>1618</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -2423,13 +2429,13 @@
         <v>4081</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,13 +2450,13 @@
         <v>15766</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -2459,13 +2465,13 @@
         <v>16834</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -2474,13 +2480,13 @@
         <v>32599</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,7 +2542,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2548,13 +2554,13 @@
         <v>428567</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H28" s="7">
         <v>725</v>
@@ -2563,13 +2569,13 @@
         <v>634782</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M28" s="7">
         <v>1146</v>
@@ -2578,13 +2584,13 @@
         <v>1063350</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,10 +2605,10 @@
         <v>26902</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>178</v>
@@ -2617,10 +2623,10 @@
         <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>49</v>
@@ -2629,13 +2635,13 @@
         <v>51247</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,13 +2656,13 @@
         <v>170267</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>201</v>
@@ -2665,13 +2671,13 @@
         <v>139280</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>355</v>
@@ -2680,13 +2686,13 @@
         <v>309547</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,7 +2748,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2754,13 +2760,13 @@
         <v>753867</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>967</v>
@@ -2769,13 +2775,13 @@
         <v>793694</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>1681</v>
@@ -2784,13 +2790,13 @@
         <v>1547561</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2811,13 @@
         <v>5881</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -2820,13 +2826,13 @@
         <v>7749</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -2835,13 +2841,13 @@
         <v>13629</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2862,13 @@
         <v>98579</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7">
         <v>81</v>
@@ -2871,13 +2877,13 @@
         <v>64346</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>123</v>
@@ -2886,13 +2892,13 @@
         <v>162925</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,13 +2966,13 @@
         <v>2826164</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>4483</v>
@@ -2975,28 +2981,28 @@
         <v>3240817</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>7343</v>
       </c>
       <c r="N36" s="7">
-        <v>6066980</v>
+        <v>6066981</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +3017,13 @@
         <v>43207</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H37" s="7">
         <v>55</v>
@@ -3026,13 +3032,13 @@
         <v>41546</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M37" s="7">
         <v>96</v>
@@ -3041,13 +3047,13 @@
         <v>84753</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3068,13 @@
         <v>507888</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H38" s="7">
         <v>814</v>
@@ -3077,13 +3083,13 @@
         <v>542288</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M38" s="7">
         <v>1279</v>
@@ -3092,13 +3098,13 @@
         <v>1050176</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,7 +3146,7 @@
         <v>8718</v>
       </c>
       <c r="N39" s="7">
-        <v>7201909</v>
+        <v>7201910</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -3154,7 +3160,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04C04_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{330AC608-06F6-4BF7-9851-415B02ADCFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{202C6936-3625-4E3C-855C-3FE6D688EECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C26FF8C9-A02C-414C-8016-00FE88ECC6DE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FA86C431-7E39-4663-BDCF-6C2E35D896A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="242">
   <si>
     <t>Población con refrigeración por aire acondicionado mediante aparatos móviles (NO ventiladores) en la vivienda en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -71,715 +71,694 @@
     <t>No</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>Si, funciona correctamente</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>Si, funciona correctamente</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5498C057-7DDE-4E7F-BCDE-5648255AC472}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354DF9A0-14A7-445B-863E-FFBD14EF5016}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1315,7 +1294,7 @@
         <v>312</v>
       </c>
       <c r="D4" s="7">
-        <v>243969</v>
+        <v>292367</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1330,7 +1309,7 @@
         <v>521</v>
       </c>
       <c r="I4" s="7">
-        <v>263317</v>
+        <v>281271</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1345,7 +1324,7 @@
         <v>833</v>
       </c>
       <c r="N4" s="7">
-        <v>507285</v>
+        <v>573637</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1366,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>867</v>
+        <v>982</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1381,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1396,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1027</v>
+        <v>1150</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>26</v>
@@ -1417,7 +1396,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>15462</v>
+        <v>18094</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>29</v>
@@ -1432,7 +1411,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>7927</v>
+        <v>8196</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>32</v>
@@ -1447,7 +1426,7 @@
         <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>23388</v>
+        <v>26291</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>35</v>
@@ -1468,7 +1447,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -1483,7 +1462,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -1498,7 +1477,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1521,7 +1500,7 @@
         <v>344</v>
       </c>
       <c r="D8" s="7">
-        <v>466473</v>
+        <v>465962</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1536,7 +1515,7 @@
         <v>655</v>
       </c>
       <c r="I8" s="7">
-        <v>506021</v>
+        <v>470305</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1551,7 +1530,7 @@
         <v>999</v>
       </c>
       <c r="N8" s="7">
-        <v>972493</v>
+        <v>936267</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1572,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1447</v>
+        <v>1426</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>49</v>
@@ -1587,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -1602,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>2065</v>
+        <v>2008</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1623,7 +1602,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>50000</v>
+        <v>49689</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>54</v>
@@ -1638,7 +1617,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>47358</v>
+        <v>43555</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>57</v>
@@ -1653,7 +1632,7 @@
         <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>97358</v>
+        <v>93244</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>60</v>
@@ -1674,7 +1653,7 @@
         <v>381</v>
       </c>
       <c r="D11" s="7">
-        <v>517920</v>
+        <v>517077</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
@@ -1689,7 +1668,7 @@
         <v>716</v>
       </c>
       <c r="I11" s="7">
-        <v>553997</v>
+        <v>514442</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -1704,7 +1683,7 @@
         <v>1097</v>
       </c>
       <c r="N11" s="7">
-        <v>1071916</v>
+        <v>1031519</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -1727,7 +1706,7 @@
         <v>337</v>
       </c>
       <c r="D12" s="7">
-        <v>302612</v>
+        <v>297060</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>64</v>
@@ -1742,7 +1721,7 @@
         <v>493</v>
       </c>
       <c r="I12" s="7">
-        <v>345310</v>
+        <v>322911</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>67</v>
@@ -1757,7 +1736,7 @@
         <v>830</v>
       </c>
       <c r="N12" s="7">
-        <v>647922</v>
+        <v>619971</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>70</v>
@@ -1829,7 +1808,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>16154</v>
+        <v>15637</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1844,7 +1823,7 @@
         <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>27288</v>
+        <v>25574</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1859,7 +1838,7 @@
         <v>60</v>
       </c>
       <c r="N14" s="7">
-        <v>43442</v>
+        <v>41211</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -1880,7 +1859,7 @@
         <v>355</v>
       </c>
       <c r="D15" s="7">
-        <v>318766</v>
+        <v>312697</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -1895,7 +1874,7 @@
         <v>535</v>
       </c>
       <c r="I15" s="7">
-        <v>372598</v>
+        <v>348485</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -1910,7 +1889,7 @@
         <v>890</v>
       </c>
       <c r="N15" s="7">
-        <v>691364</v>
+        <v>661182</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -1933,7 +1912,7 @@
         <v>252</v>
       </c>
       <c r="D16" s="7">
-        <v>275926</v>
+        <v>264064</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1948,7 +1927,7 @@
         <v>494</v>
       </c>
       <c r="I16" s="7">
-        <v>345448</v>
+        <v>343138</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1963,7 +1942,7 @@
         <v>746</v>
       </c>
       <c r="N16" s="7">
-        <v>621372</v>
+        <v>607201</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -1984,46 +1963,46 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>3406</v>
+        <v>3283</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>3713</v>
+        <v>3506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>7119</v>
+        <v>6788</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,46 +2014,46 @@
         <v>36</v>
       </c>
       <c r="D18" s="7">
-        <v>42908</v>
+        <v>45210</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
       </c>
       <c r="I18" s="7">
-        <v>78575</v>
+        <v>128301</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>133</v>
       </c>
       <c r="N18" s="7">
-        <v>121483</v>
+        <v>173511</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,7 +2065,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -2101,7 +2080,7 @@
         <v>597</v>
       </c>
       <c r="I19" s="7">
-        <v>427735</v>
+        <v>474944</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -2116,7 +2095,7 @@
         <v>889</v>
       </c>
       <c r="N19" s="7">
-        <v>749974</v>
+        <v>787500</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -2130,7 +2109,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2139,46 +2118,46 @@
         <v>134</v>
       </c>
       <c r="D20" s="7">
-        <v>95756</v>
+        <v>86729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>198</v>
       </c>
       <c r="I20" s="7">
-        <v>95075</v>
+        <v>85148</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>332</v>
       </c>
       <c r="N20" s="7">
-        <v>190831</v>
+        <v>171876</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,46 +2169,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>2241</v>
+        <v>2071</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
       </c>
       <c r="I21" s="7">
-        <v>3344</v>
+        <v>3054</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
       </c>
       <c r="N21" s="7">
-        <v>5585</v>
+        <v>5126</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,46 +2220,46 @@
         <v>140</v>
       </c>
       <c r="D22" s="7">
-        <v>98752</v>
+        <v>89942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>288</v>
       </c>
       <c r="I22" s="7">
-        <v>160681</v>
+        <v>170201</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>428</v>
       </c>
       <c r="N22" s="7">
-        <v>259433</v>
+        <v>260143</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,7 +2271,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -2307,7 +2286,7 @@
         <v>494</v>
       </c>
       <c r="I23" s="7">
-        <v>259101</v>
+        <v>258403</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -2322,7 +2301,7 @@
         <v>773</v>
       </c>
       <c r="N23" s="7">
-        <v>455849</v>
+        <v>437144</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -2336,7 +2315,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2345,10 +2324,10 @@
         <v>346</v>
       </c>
       <c r="D24" s="7">
-        <v>258994</v>
+        <v>252031</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>142</v>
@@ -2360,7 +2339,7 @@
         <v>430</v>
       </c>
       <c r="I24" s="7">
-        <v>257170</v>
+        <v>240031</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>144</v>
@@ -2369,22 +2348,22 @@
         <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="M24" s="7">
         <v>776</v>
       </c>
       <c r="N24" s="7">
-        <v>516165</v>
+        <v>492061</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,43 +2375,43 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>2463</v>
+        <v>2440</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>1618</v>
+        <v>1406</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>4081</v>
+        <v>3846</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>156</v>
@@ -2447,7 +2426,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="7">
-        <v>15766</v>
+        <v>15165</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>157</v>
@@ -2462,7 +2441,7 @@
         <v>29</v>
       </c>
       <c r="I26" s="7">
-        <v>16834</v>
+        <v>15620</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>160</v>
@@ -2477,7 +2456,7 @@
         <v>50</v>
       </c>
       <c r="N26" s="7">
-        <v>32599</v>
+        <v>30785</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>163</v>
@@ -2498,7 +2477,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -2513,7 +2492,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -2528,7 +2507,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -2551,7 +2530,7 @@
         <v>421</v>
       </c>
       <c r="D28" s="7">
-        <v>428567</v>
+        <v>420675</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>167</v>
@@ -2566,7 +2545,7 @@
         <v>725</v>
       </c>
       <c r="I28" s="7">
-        <v>634782</v>
+        <v>691001</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>170</v>
@@ -2581,7 +2560,7 @@
         <v>1146</v>
       </c>
       <c r="N28" s="7">
-        <v>1063350</v>
+        <v>1111677</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>173</v>
@@ -2602,7 +2581,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="7">
-        <v>26902</v>
+        <v>27123</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>176</v>
@@ -2617,31 +2596,31 @@
         <v>28</v>
       </c>
       <c r="I29" s="7">
-        <v>24345</v>
+        <v>22378</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M29" s="7">
         <v>49</v>
       </c>
       <c r="N29" s="7">
-        <v>51247</v>
+        <v>49501</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,46 +2632,46 @@
         <v>154</v>
       </c>
       <c r="D30" s="7">
-        <v>170267</v>
+        <v>174565</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>201</v>
       </c>
       <c r="I30" s="7">
-        <v>139280</v>
+        <v>130464</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>355</v>
       </c>
       <c r="N30" s="7">
-        <v>309547</v>
+        <v>305029</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2683,7 @@
         <v>596</v>
       </c>
       <c r="D31" s="7">
-        <v>625737</v>
+        <v>622363</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -2719,7 +2698,7 @@
         <v>954</v>
       </c>
       <c r="I31" s="7">
-        <v>798407</v>
+        <v>843843</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>38</v>
@@ -2734,7 +2713,7 @@
         <v>1550</v>
       </c>
       <c r="N31" s="7">
-        <v>1424144</v>
+        <v>1466207</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>38</v>
@@ -2748,7 +2727,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2757,46 +2736,46 @@
         <v>714</v>
       </c>
       <c r="D32" s="7">
-        <v>753867</v>
+        <v>638544</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>967</v>
       </c>
       <c r="I32" s="7">
-        <v>793694</v>
+        <v>655372</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>1681</v>
       </c>
       <c r="N32" s="7">
-        <v>1547561</v>
+        <v>1293917</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,46 +2787,46 @@
         <v>5</v>
       </c>
       <c r="D33" s="7">
-        <v>5881</v>
+        <v>4982</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
       </c>
       <c r="I33" s="7">
-        <v>7749</v>
+        <v>6503</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
       </c>
       <c r="N33" s="7">
-        <v>13629</v>
+        <v>11485</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,46 +2838,46 @@
         <v>42</v>
       </c>
       <c r="D34" s="7">
-        <v>98579</v>
+        <v>284228</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H34" s="7">
         <v>81</v>
       </c>
       <c r="I34" s="7">
-        <v>64346</v>
+        <v>53617</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>123</v>
       </c>
       <c r="N34" s="7">
-        <v>162925</v>
+        <v>337844</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,7 +2889,7 @@
         <v>761</v>
       </c>
       <c r="D35" s="7">
-        <v>858327</v>
+        <v>927754</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>38</v>
@@ -2925,7 +2904,7 @@
         <v>1058</v>
       </c>
       <c r="I35" s="7">
-        <v>865789</v>
+        <v>715492</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>38</v>
@@ -2940,7 +2919,7 @@
         <v>1819</v>
       </c>
       <c r="N35" s="7">
-        <v>1724116</v>
+        <v>1643246</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>38</v>
@@ -2963,46 +2942,46 @@
         <v>2860</v>
       </c>
       <c r="D36" s="7">
-        <v>2826164</v>
+        <v>2717431</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H36" s="7">
         <v>4483</v>
       </c>
       <c r="I36" s="7">
-        <v>3240817</v>
+        <v>3089176</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>7343</v>
       </c>
       <c r="N36" s="7">
-        <v>6066981</v>
+        <v>5806606</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,46 +2993,46 @@
         <v>41</v>
       </c>
       <c r="D37" s="7">
-        <v>43207</v>
+        <v>42307</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>55</v>
       </c>
       <c r="I37" s="7">
-        <v>41546</v>
+        <v>37596</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M37" s="7">
         <v>96</v>
       </c>
       <c r="N37" s="7">
-        <v>84753</v>
+        <v>79903</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,46 +3044,46 @@
         <v>465</v>
       </c>
       <c r="D38" s="7">
-        <v>507888</v>
+        <v>692530</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>240</v>
+        <v>56</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H38" s="7">
         <v>814</v>
       </c>
       <c r="I38" s="7">
-        <v>542288</v>
+        <v>575527</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M38" s="7">
         <v>1279</v>
       </c>
       <c r="N38" s="7">
-        <v>1050176</v>
+        <v>1268057</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3095,7 @@
         <v>3366</v>
       </c>
       <c r="D39" s="7">
-        <v>3377258</v>
+        <v>3452268</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -3131,7 +3110,7 @@
         <v>5352</v>
       </c>
       <c r="I39" s="7">
-        <v>3824651</v>
+        <v>3702299</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>38</v>
@@ -3146,7 +3125,7 @@
         <v>8718</v>
       </c>
       <c r="N39" s="7">
-        <v>7201910</v>
+        <v>7154566</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -3160,7 +3139,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
